--- a/data/income_statement/2digits/size/28_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/28_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>28-Manufacture of machinery and equipment n.e.c.</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>28-Manufacture of machinery and equipment n.e.c.</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,890 +841,1005 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4390127.1095</v>
+        <v>4660264.65365</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4876613.858560001</v>
+        <v>5165170.01119</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6061236.131680001</v>
+        <v>6316219.72144</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6576280.561289999</v>
+        <v>6927836.031509999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9211497.951819999</v>
+        <v>9728532.762269998</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>10203257.71515</v>
+        <v>10942545.02078</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10851453.75155</v>
+        <v>11703866.13521</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10954732.87191</v>
+        <v>12107211.87907</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>12620412.90263</v>
+        <v>14000274.46829</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>24117062.04235</v>
+        <v>24615357.44475</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>25403188.03839</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>26607965.48813</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>33966373.363</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3610438.81967</v>
+        <v>3815853.49656</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4192655.508140001</v>
+        <v>4416827.7749</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5145688.16925</v>
+        <v>5348638.50339</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5591213.44551</v>
+        <v>5872166.479350001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7882776.83894</v>
+        <v>8273346.10191</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>8660524.887960002</v>
+        <v>9226345.247709999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>9240553.819660001</v>
+        <v>9894406.07148</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9275629.543129999</v>
+        <v>10208299.33859</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>10567563.63218</v>
+        <v>11669095.21395</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>18864625.63041</v>
+        <v>19225504.16741</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>19284505.33438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>20091834.6264</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>26807848.012</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>728973.73801</v>
+        <v>788958.8067900001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>638948.63158</v>
+        <v>699470.90825</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>860243.4434300001</v>
+        <v>909168.3588300002</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>928643.3204200001</v>
+        <v>995684.7442900001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1251273.24757</v>
+        <v>1368431.51327</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1445420.05568</v>
+        <v>1610527.78</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1499532.01079</v>
+        <v>1685898.01295</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1543531.68658</v>
+        <v>1741960.60311</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1912716.44595</v>
+        <v>2171402.85165</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4950932.857229999</v>
+        <v>5091458.212979999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5796733.74925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6192682.99231</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6763333.727</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>50714.55182000001</v>
+        <v>55452.35030000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>45009.71884</v>
+        <v>48871.32804</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>55304.519</v>
+        <v>58412.85922</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>56423.79536</v>
+        <v>59984.80787</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>77447.86531000001</v>
+        <v>86755.14708999998</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>97312.77150999999</v>
+        <v>105671.99307</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>111367.9211</v>
+        <v>123562.05078</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>135571.6422</v>
+        <v>156951.93737</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>140132.8245</v>
+        <v>159776.40269</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>301503.5547100001</v>
+        <v>298395.06436</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>321948.95476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>323447.8694199999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>395191.624</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>67890.13998000001</v>
+        <v>78374.21568000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>71999.70015999999</v>
+        <v>76150.37209</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>87872.80968999999</v>
+        <v>93483.96340000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>90968.12572999999</v>
+        <v>97317.05255000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>125640.8199</v>
+        <v>137946.70348</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>139388.16037</v>
+        <v>149571.90675</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>138597.15519</v>
+        <v>156571.22782</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>138063.31535</v>
+        <v>167819.96902</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>137138.61504</v>
+        <v>161311.79724</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>354770.09742</v>
+        <v>396502.73083</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>402488.49351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>443148.7246899999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1429219.782</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>46189.78894</v>
+        <v>50240.3059</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>48502.73254</v>
+        <v>51542.25368</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>64150.72154999999</v>
+        <v>67298.966</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>63329.0886</v>
+        <v>65962.64959999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>87974.55860999999</v>
+        <v>93170.09446999998</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>96986.90134</v>
+        <v>105055.81067</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>98917.7694</v>
+        <v>112033.94833</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>107209.16909</v>
+        <v>126882.27857</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>106987.6138</v>
+        <v>120298.39867</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>266455.23659</v>
+        <v>285037.419</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>307751.47428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>328690.42359</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1280438.339</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>18842.70561</v>
+        <v>24971.29893</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>19913.7201</v>
+        <v>20653.02759</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>20498.7107</v>
+        <v>22725.48356</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>23687.85596</v>
+        <v>27299.4052</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>30177.59863</v>
+        <v>37031.90566</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>36182.30676000001</v>
+        <v>37553.93501</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>31947.38501</v>
+        <v>36601.03895</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>25263.53389000001</v>
+        <v>34605.53182</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>24801.01623</v>
+        <v>34764.68793</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>56616.92908</v>
+        <v>79883.49092</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>76861.60368</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>95902.79876999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>121027.49</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2857.64543</v>
+        <v>3162.61085</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>3583.247519999999</v>
+        <v>3955.09082</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3223.37744</v>
+        <v>3459.51384</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3951.18117</v>
+        <v>4054.99775</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>7488.66266</v>
+        <v>7744.703350000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6218.95227</v>
+        <v>6962.16107</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7732.00078</v>
+        <v>7936.24054</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>5590.612369999999</v>
+        <v>6332.15863</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>5349.985009999999</v>
+        <v>6248.710639999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>31697.93175</v>
+        <v>31581.82091</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>17875.41555</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18555.50233</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>27753.953</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4322236.969520001</v>
+        <v>4581890.437969999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4804614.1584</v>
+        <v>5089019.6391</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5973363.32199</v>
+        <v>6222735.758040001</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6485312.435559999</v>
+        <v>6830518.97896</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9085857.131920002</v>
+        <v>9590586.058789998</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>10063869.55478</v>
+        <v>10792973.11403</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10712856.59636</v>
+        <v>11547294.90739</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10816669.55656</v>
+        <v>11939391.91005</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>12483274.28759</v>
+        <v>13838962.67105</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>23762291.94493</v>
+        <v>24218854.71392</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>25000699.54488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>26164816.76344</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>32537153.581</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3494207.37496</v>
+        <v>3687831.48672</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3905731.03418</v>
+        <v>4133564.20358</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4867736.06654</v>
+        <v>5068491.17861</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5290899.188119999</v>
+        <v>5564305.240359999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7429193.29469</v>
+        <v>7828312.92018</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8182150.90708</v>
+        <v>8761344.822149999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8731797.835920002</v>
+        <v>9384032.500969999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8780507.70334</v>
+        <v>9676833.78142</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>10281681.44963</v>
+        <v>11373540.64874</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>19410716.22625</v>
+        <v>19749598.47091</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>20249828.93862</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21129965.34701</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26702235.046</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2473193.63316</v>
+        <v>2649872.08665</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2856335.56216</v>
+        <v>3052690.26864</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>3513652.45041</v>
+        <v>3683794.56674</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3849028.84027</v>
+        <v>4087292.917859999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>5485515.23121</v>
+        <v>5841166.73919</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6038134.45551</v>
+        <v>6529770.53632</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>6414051.9478</v>
+        <v>6955221.97375</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6435741.56915</v>
+        <v>7161929.783609999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7313966.101729999</v>
+        <v>8196985.281220001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>14601152.64454</v>
+        <v>14894379.27867</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>15231435.92448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15966688.65369</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>19342636.873</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>810797.00073</v>
+        <v>826458.3181600001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>837920.0203999999</v>
+        <v>860810.43987</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>1094997.53743</v>
+        <v>1126771.67199</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1139900.79318</v>
+        <v>1181506.44971</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1589605.53183</v>
+        <v>1627371.34742</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1782767.27831</v>
+        <v>1861494.35129</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1900758.96929</v>
+        <v>1987448.49565</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1921199.55674</v>
+        <v>2065567.24824</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2413742.41876</v>
+        <v>2590343.67009</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>4091253.56719</v>
+        <v>4158174.57142</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>4185710.76317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4343445.19345</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6457699.287</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>196534.15553</v>
+        <v>197196.02828</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>195864.34959</v>
+        <v>203969.85534</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>241350.64292</v>
+        <v>239666.00377</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>291755.3282</v>
+        <v>284590.35138</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>341633.26122</v>
+        <v>342973.49467</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>343821.6355499999</v>
+        <v>352432.88947</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>390637.00329</v>
+        <v>409877.81079</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>391861.38662</v>
+        <v>408600.07453</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>509021.10216</v>
+        <v>543140.5517</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>661245.2567800001</v>
+        <v>641650.3801399999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>762930.6496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>747684.5294</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>837523.161</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>13682.58554</v>
+        <v>14305.05363</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>15611.10203</v>
+        <v>16093.63973</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>17735.43578</v>
+        <v>18258.93611</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>10214.22647</v>
+        <v>10915.52141</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>12439.27043</v>
+        <v>16801.3389</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>17427.53771</v>
+        <v>17647.04507</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>26349.91554</v>
+        <v>31484.22078</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>31705.19083</v>
+        <v>40736.67504</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>44951.82698000001</v>
+        <v>43071.14573</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>57064.75774</v>
+        <v>55394.24068000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>69751.60137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>72146.97047</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>64375.725</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>828029.59456</v>
+        <v>894058.95125</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>898883.12422</v>
+        <v>955455.4355200001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1105627.25545</v>
+        <v>1154244.57943</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1194413.24744</v>
+        <v>1266213.7386</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1656663.83723</v>
+        <v>1762273.13861</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1881718.6477</v>
+        <v>2031628.29188</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1981058.76044</v>
+        <v>2163262.406419999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2036161.85322</v>
+        <v>2262558.12863</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2201592.83796</v>
+        <v>2465422.02231</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4351575.718679999</v>
+        <v>4469256.24301</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4750870.60626</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5034851.41643</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5834918.535</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>547186.93074</v>
+        <v>587328.61172</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>585932.6061</v>
+        <v>621787.36515</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>692923.5517999999</v>
+        <v>720341.78659</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>758897.4151100001</v>
+        <v>797565.6438</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1041927.08535</v>
+        <v>1102116.63304</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1169785.34171</v>
+        <v>1261176.46688</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1255066.10229</v>
+        <v>1357917.90758</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1343759.85258</v>
+        <v>1480448.441</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1418700.86866</v>
+        <v>1554751.20593</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2473685.52654</v>
+        <v>2514537.60586</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2819544.42723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2905755.16404</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3010314.869</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>9874.3416</v>
+        <v>10769.88452</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>9920.120540000002</v>
+        <v>10525.97092</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>9911.235369999997</v>
+        <v>10263.16348</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>10501.30699</v>
+        <v>10365.91817</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>12988.67924</v>
+        <v>14063.96489</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>23195.03343</v>
+        <v>26176.14338</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>14233.84606</v>
+        <v>16926.58022</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>18143.5155</v>
+        <v>19890.75565</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>19654.79985</v>
+        <v>21981.03817</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>39649.09868000001</v>
+        <v>42069.82227</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>52227.48853</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>56152.15105</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>71810.936</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>130632.37978</v>
+        <v>144412.85768</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>143281.54691</v>
+        <v>153223.743</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>170372.84141</v>
+        <v>178652.17295</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>182068.78559</v>
+        <v>195203.69336</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>246138.25533</v>
+        <v>266972.54239</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>280856.91367</v>
+        <v>312050.94063</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>297328.13856</v>
+        <v>328328.91895</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>311183.08457</v>
+        <v>354573.91467</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>325755.65308</v>
+        <v>367150.62752</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>732754.6042599999</v>
+        <v>752389.0760899999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>802100.76353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>843808.9134900001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>739142.687</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>406680.20936</v>
+        <v>432145.86952</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>432730.93865</v>
+        <v>458037.65123</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>512639.47502</v>
+        <v>531426.45016</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>566327.32253</v>
+        <v>591996.03227</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>782800.15078</v>
+        <v>821080.12576</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>865733.3946100001</v>
+        <v>922949.3828700001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>943504.1176699998</v>
+        <v>1012662.40841</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1014433.25251</v>
+        <v>1105983.77068</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1073290.41573</v>
+        <v>1165619.54024</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1701281.8236</v>
+        <v>1720078.7075</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1965216.17517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2005794.0995</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2199361.246</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>280842.66382</v>
+        <v>306730.33953</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>312950.51812</v>
+        <v>333668.07037</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>412703.70365</v>
+        <v>433902.7928399999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>435515.8323300001</v>
+        <v>468648.0948</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>614736.75188</v>
+        <v>660156.50557</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>711933.30599</v>
+        <v>770451.825</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>725992.65815</v>
+        <v>805344.4988399999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>692402.0006400001</v>
+        <v>782109.6876299998</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>782891.9693</v>
+        <v>910670.8163800001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1877890.19214</v>
+        <v>1954718.63715</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1931326.17903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2129096.25239</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2824603.666</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>63241.14402000001</v>
+        <v>79608.81138</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>54961.25431</v>
+        <v>65639.55042</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>79265.96208000001</v>
+        <v>96275.31987000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>57804.31408</v>
+        <v>71163.28778999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>131679.93411</v>
+        <v>175737.72013</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>114505.36209</v>
+        <v>142250.23224</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>190422.10595</v>
+        <v>253731.0204</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>175408.0448</v>
+        <v>239690.44623</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>181611.09293</v>
+        <v>255661.03162</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1249426.76884</v>
+        <v>1581778.88502</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>765403.98402</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1096135.65558</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1595143.135</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>83.39376</v>
+        <v>20.58511</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>361.25707</v>
+        <v>233.862</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>150.92222</v>
+        <v>458.13894</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>310.528</v>
+        <v>315.528</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2214.72325</v>
+        <v>14.72325</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3.11456</v>
+        <v>574.8748499999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2910.64298</v>
+        <v>3227.87347</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>20.70763</v>
+        <v>496.20199</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1557.39959</v>
+        <v>2280.49422</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>8536.25202</v>
+        <v>151084.8062</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1655.07522</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>183379.46879</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>75118.67200000001</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1.74659</v>
+        <v>73.74659</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>18.63995</v>
+        <v>143.23264</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>115.55793</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>69.52414999999999</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>7577.50295</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>80.61486000000001</v>
+        <v>80.38057999999999</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>180.19174</v>
@@ -1835,268 +1851,303 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>1679.91584</v>
+        <v>2532.802</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>42.40292000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>24.653</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>7134.250400000001</v>
+        <v>9236.39098</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6864.436239999999</v>
+        <v>8653.325629999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7179.37641</v>
+        <v>9713.00973</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>7997.907180000001</v>
+        <v>11959.56544</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>11639.15757</v>
+        <v>15303.9477</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>12742.71653</v>
+        <v>16833.156</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>13520.62892</v>
+        <v>18366.76925</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>13972.40598</v>
+        <v>18945.38122</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>18365.07811</v>
+        <v>27384.83043</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>57204.23548999999</v>
+        <v>62734.51506999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>72344.85531999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>78950.86094999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>69888.148</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>889.5037199999999</v>
+        <v>464.6066900000001</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>708.5897</v>
+        <v>1100.62669</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>602.31836</v>
+        <v>680.6142300000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>458.33509</v>
+        <v>612.4027699999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2256.48939</v>
+        <v>2278.63802</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>1506.34208</v>
+        <v>1649.48074</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1985.10818</v>
+        <v>2317.10974</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2503.25347</v>
+        <v>3206.00672</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2562.97073</v>
+        <v>3761.24918</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>9346.42757</v>
+        <v>9371.20246</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>2368.6141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2252.70751</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7299.802</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3452.69223</v>
+        <v>3074.65108</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1182.67352</v>
+        <v>1324.08571</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1054.30734</v>
+        <v>1245.05437</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1049.47423</v>
+        <v>1204.81234</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1276.18765</v>
+        <v>3724.83673</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2432.13862</v>
+        <v>5238.13241</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4625.6906</v>
+        <v>5142.369729999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2640.88957</v>
+        <v>3153.15457</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2086.84957</v>
+        <v>2405.93557</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>7549.37779</v>
+        <v>4729.68365</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>49892.6007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>50531.54569</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>47532.151</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1102.26727</v>
+        <v>1105.347</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>636.0056999999999</v>
+        <v>432.27272</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>618.8287800000001</v>
+        <v>557.8437399999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>822.3299499999999</v>
+        <v>808.15818</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>893.1774799999999</v>
+        <v>902.1520300000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1137.25106</v>
+        <v>956.6537</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1062.37087</v>
+        <v>1718.18354</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1122.31701</v>
+        <v>2432.82934</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1130.68271</v>
+        <v>1047.43746</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>21861.57078</v>
+        <v>7630.343949999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>5513.411950000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>6306.890189999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>21491.128</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>36537.75722</v>
+        <v>48571.19197</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>32967.9492</v>
+        <v>40330.22678</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>53546.71207</v>
+        <v>66114.90323</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>28102.80085</v>
+        <v>33675.37898</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>88917.99864000002</v>
+        <v>120637.40211</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>68880.41898</v>
+        <v>85749.94017</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>138631.11254</v>
+        <v>188297.26988</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>119272.44519</v>
+        <v>172910.73862</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>121607.37396</v>
+        <v>178051.74098</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1065178.78401</v>
+        <v>1255586.7036</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>541505.5050600001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>680336.743</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1284288.846</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>446.37286</v>
+        <v>218.47501</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>64.28107000000001</v>
+        <v>202.26774</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>216.78062</v>
+        <v>47.26812</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>152.52589</v>
+        <v>135.24083</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>262.32033</v>
+        <v>391.37859</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>91.45363</v>
+        <v>253.77551</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>21.58074</v>
+        <v>105.59673</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>420.64056</v>
+        <v>479.17805</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>66.82209</v>
+        <v>155.91393</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>254.09819</v>
+        <v>1162.37355</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2892.95874</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>3249.802889999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>979.731</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>238.98498</v>
+        <v>362.21994</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>34.81948000000001</v>
+        <v>23.84758</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>38.19869</v>
+        <v>35.81108999999999</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>140.29222</v>
+        <v>82.13865000000001</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>75.88052</v>
+        <v>655.5354</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>95.88189999999999</v>
+        <v>5.5363</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>77.51917999999999</v>
@@ -2105,7 +2156,7 @@
         <v>170.92012</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>135.21803</v>
+        <v>132.31427</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>1138.1552</v>
@@ -2113,305 +2164,345 @@
       <c r="M34" s="48" t="n">
         <v>401.4362599999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>200.01</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>13354.17499</v>
+        <v>16481.59701</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>12122.60238</v>
+        <v>13195.80293</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>15742.95966</v>
+        <v>17307.11849</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>18770.12067</v>
+        <v>22300.53845</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>24143.99928</v>
+        <v>24251.60335</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>27535.42987</v>
+        <v>30908.30198</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>27407.2602</v>
+        <v>34298.13713999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>35175.27733999999</v>
+        <v>37786.84767</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>34098.69814</v>
+        <v>40441.11558</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>76677.95195</v>
+        <v>85808.29934</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>88787.12375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>90683.79737999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>88319.99400000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>61134.5532</v>
+        <v>73041.60256</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>45590.50817</v>
+        <v>55695.27607</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>63195.46389</v>
+        <v>77649.54384999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>51132.54654</v>
+        <v>60917.12179999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>105845.00242</v>
+        <v>185723.57399</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>107834.94857</v>
+        <v>126593.12252</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>151188.4698</v>
+        <v>197261.16496</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>141771.57551</v>
+        <v>203931.86765</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>151194.90572</v>
+        <v>216221.00451</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1148514.48032</v>
+        <v>1266159.28188</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>661991.61272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>776039.94872</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1177190.419</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1945.39879</v>
+        <v>2155.17279</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1734.23993</v>
+        <v>2208.25087</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2783.03946</v>
+        <v>3074.91612</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2085.47895</v>
+        <v>2914.67226</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3501.0682</v>
+        <v>4047.97083</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4775.597470000001</v>
+        <v>5416.62933</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>4695.892900000001</v>
+        <v>5178.12111</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>5673.60718</v>
+        <v>5223.274420000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7297.796359999999</v>
+        <v>8197.806430000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>10850.07237</v>
+        <v>11169.08262</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11822.94687</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>12557.92943</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>31716.871</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>12804.96569</v>
+        <v>12733.55163</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>8230.585290000001</v>
+        <v>8718.03736</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>7410.67707</v>
+        <v>7360.687879999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>12282.15331</v>
+        <v>15932.46715</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>16319.1462</v>
+        <v>17719.13211</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>17083.09546</v>
+        <v>17821.07211</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>18427.04674</v>
+        <v>21669.47174</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>19724.15352</v>
+        <v>20928.97034</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>13778.57867</v>
+        <v>17918.37086</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>48191.47515999999</v>
+        <v>44994.87798</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>81794.70018000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>86322.39256000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>62703.464</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>370.13096</v>
+        <v>386.61166</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>198.4874</v>
+        <v>113.04583</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>79.49343</v>
+        <v>77.90419</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>251.01038</v>
+        <v>275.87338</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>315.53692</v>
+        <v>328.21524</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1307.89043</v>
+        <v>527.5900799999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>584.5452299999999</v>
+        <v>568.9553000000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>269.76756</v>
+        <v>1078.60579</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>191.55517</v>
+        <v>100.59548</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1507.102</v>
+        <v>3908.82248</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>376.10642</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>425.27135</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>12240.779</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>39719.33931</v>
+        <v>50219.66258</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>31425.90827</v>
+        <v>40163.49687</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>48174.42808</v>
+        <v>62345.29323999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>31184.29128</v>
+        <v>36664.94511</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>77921.72098</v>
+        <v>141662.81947</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>69404.10821999999</v>
+        <v>87593.95707999998</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>119871.92967</v>
+        <v>161470.29284</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>92779.18012</v>
+        <v>152288.11764</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>117900.03702</v>
+        <v>174168.63055</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1058414.01674</v>
+        <v>1174074.96069</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>527604.13473</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>631778.78171</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1030638.023</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>382.75689</v>
+        <v>162.14314</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>101.42995</v>
+        <v>117.49983</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>29.80757</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>398.51699</v>
+        <v>454.00372</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>444.95911</v>
+        <v>591.41395</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>48.1298</v>
+        <v>207.9246</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>53.46318</v>
+        <v>112.00067</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>48.3133</v>
+        <v>132.16421</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>76.22690999999999</v>
+        <v>205.87684</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>877.7943300000001</v>
+        <v>2121.02079</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2467.97474</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>3247.71811</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1665.544</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>727.2740200000001</v>
+        <v>772.9116200000001</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>0</v>
+        <v>144.86862</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>104.11879</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>106.00242</v>
+        <v>101.83897</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>7.89031</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>4.640149999999999</v>
+        <v>4.521859999999999</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>33.05933</v>
+        <v>49.68833</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0.39621</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>175.836</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5184.687539999999</v>
+        <v>6611.54914</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3899.85733</v>
+        <v>4230.07669</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>4613.899489999999</v>
+        <v>4656.816059999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>4825.093210000001</v>
+        <v>4573.32121</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>7334.680699999999</v>
+        <v>21366.13208</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>15211.48704</v>
+        <v>15021.42746</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7522.53275</v>
+        <v>8212.634970000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>23276.55383</v>
+        <v>24280.73525</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>11944.22847</v>
+        <v>15623.24123</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>28665.58752</v>
+        <v>29882.08512</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>37925.35357</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>41707.45935</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>38049.902</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>81328.55795000002</v>
+        <v>105112.46608</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>61800.26389</v>
+        <v>74964.55263999999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>65963.87632</v>
+        <v>76763.08598999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>80668.15866</v>
+        <v>93799.75578000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>113451.28258</v>
+        <v>150245.75642</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>131866.51017</v>
+        <v>158745.39572</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>147584.23586</v>
+        <v>179741.109</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>164671.57566</v>
+        <v>212197.69947</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>175165.02186</v>
+        <v>229523.14968</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>481056.11012</v>
+        <v>529490.20014</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>517342.54773</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>585930.16311</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>544715.545</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>77538.84165</v>
+        <v>98256.14989</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>58598.85673</v>
+        <v>71737.73916</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>62774.69198</v>
+        <v>73366.78002999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>77170.59047</v>
+        <v>90098.59672999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>109319.46834</v>
+        <v>139904.25245</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>127139.83583</v>
+        <v>152816.31806</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>141999.82756</v>
+        <v>171924.58931</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>157989.71926</v>
+        <v>203611.6276</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>167795.11739</v>
+        <v>217057.00837</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>461490.35013</v>
+        <v>503652.89855</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>495429.12138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>557441.69829</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>518993.265</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3789.7163</v>
+        <v>6856.31619</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>3201.40716</v>
+        <v>3226.813479999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3189.18434</v>
+        <v>3396.305960000001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3497.56819</v>
+        <v>3701.15905</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>4131.814240000001</v>
+        <v>10341.50397</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4726.67434</v>
+        <v>5929.07766</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5584.4083</v>
+        <v>7816.519689999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>6681.856400000001</v>
+        <v>8586.071870000002</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>7369.904469999999</v>
+        <v>12466.14131</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>19565.75999</v>
+        <v>25837.30159</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>21913.42635</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>28488.46482</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>25722.28</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>201620.69669</v>
+        <v>208185.08227</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>260521.00037</v>
+        <v>268647.79208</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>362810.32552</v>
+        <v>375765.48287</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>361519.44121</v>
+        <v>385094.50501</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>527120.40099</v>
+        <v>499924.89529</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>586737.2093400001</v>
+        <v>627363.539</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>617642.0584399999</v>
+        <v>682073.2452799999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>561366.8942699999</v>
+        <v>605670.56674</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>638143.1346499999</v>
+        <v>720587.69381</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1497746.37054</v>
+        <v>1740848.04015</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1517396.0026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1863261.79614</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2697840.837</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>28449.48667</v>
+        <v>35751.23145000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>25113.48819</v>
+        <v>26519.40457</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>39774.76891</v>
+        <v>34270.02873</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>30743.47443</v>
+        <v>39786.32504</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>63046.8198</v>
+        <v>89987.48889000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>65538.89191999999</v>
+        <v>81754.85273999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>66205.59458</v>
+        <v>86420.86093</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>84874.52008</v>
+        <v>94779.01319</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>91332.09985</v>
+        <v>102725.10445</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>167544.96934</v>
+        <v>167883.22518</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>199987.31121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>201427.54397</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>252676.435</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>799.87453</v>
+        <v>1083.94467</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>661.81578</v>
+        <v>496.16335</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>694.0461299999999</v>
+        <v>649.0744599999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>502.20236</v>
+        <v>800.5207799999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2397.05043</v>
+        <v>2628.73122</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>315.41395</v>
+        <v>333.30813</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>622.03864</v>
+        <v>7275.66269</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1278.55432</v>
+        <v>1027.67115</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>959.2376899999998</v>
+        <v>1450.04838</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1354.63593</v>
+        <v>1592.72515</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2066.43931</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5271.503130000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4802.708</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>27649.61214</v>
+        <v>34667.28678</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>24451.67241</v>
+        <v>26023.24122</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>39080.72278</v>
+        <v>33620.95427</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>30241.27207</v>
+        <v>38985.80426</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>60649.76937</v>
+        <v>87358.75767000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>65223.47797</v>
+        <v>81421.54461</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>65583.55593999999</v>
+        <v>79145.19824</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>83595.96575999999</v>
+        <v>93751.34204</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>90372.86215999999</v>
+        <v>101275.05607</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>166190.33341</v>
+        <v>166290.50003</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>197920.8719</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>196156.04084</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>247873.727</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>29433.73422</v>
+        <v>35328.1149</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>28662.40428</v>
+        <v>27910.94451</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>261630.57223</v>
+        <v>294194.0595200001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>35420.89605</v>
+        <v>34457.4021</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>55828.64723</v>
+        <v>61547.51555</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>240719.5493</v>
+        <v>253523.02493</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>50343.11315999999</v>
+        <v>59732.47519999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>279480.97779</v>
+        <v>288162.87235</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>63459.11736</v>
+        <v>72682.77193999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>348467.56034</v>
+        <v>341190.78321</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>171901.64138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>183615.36562</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>213615.431</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1455.38357</v>
+        <v>3791.21729</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2219.08143</v>
+        <v>2381.80289</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1856.01341</v>
+        <v>3234.197390000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4323.4133</v>
+        <v>3763.86085</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2667.52742</v>
+        <v>4786.551189999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>6143.078310000001</v>
+        <v>9216.32315</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>4500.02475</v>
+        <v>4175.58637</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3515.85827</v>
+        <v>5289.89966</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1607.52665</v>
+        <v>1950.12489</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>8190.27189</v>
+        <v>7646.036700000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>9148.67344</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>13192.16956</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9509.919</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2170.47784</v>
+        <v>1950.41395</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1442.38708</v>
+        <v>1060.40966</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2153.41927</v>
+        <v>2269.35503</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1693.78647</v>
+        <v>1700.98543</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4281.77947</v>
+        <v>4310.88866</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5616.22421</v>
+        <v>5401.64359</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4614.172280000001</v>
+        <v>7642.57315</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5428.07095</v>
+        <v>3162.28646</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1841.65789</v>
+        <v>2930.48032</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7037.781450000001</v>
+        <v>6600.459900000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>12997.13056</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8897.36831</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7291.216</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>25807.87281</v>
+        <v>29586.48366</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>25000.93577</v>
+        <v>24468.73196</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>257621.13955</v>
+        <v>288690.5071</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>29403.69628</v>
+        <v>28992.55582</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>48879.34034</v>
+        <v>52450.0757</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>228960.24678</v>
+        <v>238905.05819</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>41228.91613000001</v>
+        <v>47914.31568</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>270537.04857</v>
+        <v>279710.68623</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>60009.93281999999</v>
+        <v>67802.16673</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>333239.507</v>
+        <v>326944.28661</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>149755.83738</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>161525.82775</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>196814.296</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>200636.44914</v>
+        <v>208608.19882</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>256972.08428</v>
+        <v>267256.25214</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>140954.5222</v>
+        <v>115841.45208</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>356842.01959</v>
+        <v>390423.42795</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>534338.57356</v>
+        <v>528364.86863</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>411556.55196</v>
+        <v>455595.36681</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>633504.53986</v>
+        <v>708761.63101</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>366760.43656</v>
+        <v>412286.70758</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>666016.1171400001</v>
+        <v>750630.0263200001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1316823.77954</v>
+        <v>1567540.48212</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1545481.67243</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1881073.97449</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2736901.841</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>41879.45701</v>
+        <v>45774.9966</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>51388.79229999999</v>
+        <v>54460.09599</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>68075.30811</v>
+        <v>71179.97889000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>68810.39232</v>
+        <v>72823.98703</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>106458.20809</v>
+        <v>113837.33663</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>113817.72899</v>
+        <v>122441.50807</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>120556.52054</v>
+        <v>132678.53013</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>115353.10326</v>
+        <v>129066.87614</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>125546.37339</v>
+        <v>139980.95573</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>323667.15082</v>
+        <v>345294.11462</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>328504.7429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>352905.5092</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>506678.963</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>158756.99213</v>
+        <v>162833.20222</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>205583.29198</v>
+        <v>212796.15615</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>72879.21409000001</v>
+        <v>44661.47319</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>288031.6272700001</v>
+        <v>317599.44092</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>427880.36547</v>
+        <v>414527.532</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>297738.82297</v>
+        <v>333153.85874</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>512948.0193199999</v>
+        <v>576083.10088</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>251407.3333</v>
+        <v>283219.83144</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>540469.74375</v>
+        <v>610649.07059</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>993156.6287200002</v>
+        <v>1222246.3675</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1216976.92953</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1528168.46529</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2230222.878</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2532</v>
+        <v>2329</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2640</v>
+        <v>2375</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2784</v>
+        <v>2513</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2971</v>
+        <v>2703</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3457</v>
+        <v>3070</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3662</v>
+        <v>3247</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3907</v>
+        <v>3407</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4128</v>
+        <v>3555</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>4429</v>
+        <v>3795</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3623</v>
+        <v>3288</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3313</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3594</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>